--- a/output/fit_clients/fit_round_392.xlsx
+++ b/output/fit_clients/fit_round_392.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2430762449.286894</v>
+        <v>2401065825.037773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07378330865899307</v>
+        <v>0.08876156740187369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03141066861483884</v>
+        <v>0.03656568384772696</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1215381278.193659</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1927841296.662469</v>
+        <v>2487360564.150615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1654529931244139</v>
+        <v>0.1492080168714705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04940806336503994</v>
+        <v>0.04467608919300319</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>963920677.2259212</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4256899902.112055</v>
+        <v>4898637684.10034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1516155938244844</v>
+        <v>0.1352737501394641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03520003229842369</v>
+        <v>0.02863118325032151</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>141</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2128449983.460202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3607325354.908767</v>
+        <v>3406207802.90823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09968668773372372</v>
+        <v>0.09995556503362288</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03371245300120464</v>
+        <v>0.03892493478260892</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1803662707.161169</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2496350068.855958</v>
+        <v>2100378655.424449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1144333074039578</v>
+        <v>0.09642551059178753</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04225448421029539</v>
+        <v>0.04137050148777874</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1248175010.318135</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3098610682.543441</v>
+        <v>3037997585.01615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09363120048689914</v>
+        <v>0.08556548279465462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04523357694908405</v>
+        <v>0.03067348754047055</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>123</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1549305296.671604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2546842013.149706</v>
+        <v>2755209305.837414</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1391950914519427</v>
+        <v>0.1998504880293911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03041123220432895</v>
+        <v>0.03125196627860025</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>125</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1273421017.773596</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1731292878.69487</v>
+        <v>1900168915.620427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1902751744219563</v>
+        <v>0.1622464730959721</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02741879131701767</v>
+        <v>0.02269086772115859</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>865646503.2534671</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4495709204.959466</v>
+        <v>5684184180.003138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1342274028321015</v>
+        <v>0.1320696036522792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04153504677246853</v>
+        <v>0.04618451174761467</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>165</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2247854662.797901</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3899288615.601812</v>
+        <v>3222937249.301024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1370454860180415</v>
+        <v>0.1347268811490092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04127411669315032</v>
+        <v>0.04051386672153505</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>162</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1949644313.450997</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2922155473.666255</v>
+        <v>2380523218.997735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1659315567164922</v>
+        <v>0.1682544308553489</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03844183029078536</v>
+        <v>0.03922203213609207</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1461077747.746386</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3445917672.963496</v>
+        <v>5256361722.990769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06209251019255815</v>
+        <v>0.07385947210394402</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02467655423060288</v>
+        <v>0.0232416258799449</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>131</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1722958919.566596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3012017087.924852</v>
+        <v>2723713432.377651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.185816754361478</v>
+        <v>0.1629539042046887</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0277603911087086</v>
+        <v>0.03803699583782648</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1506008577.547079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1670415419.882495</v>
+        <v>1597924790.161334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07571190252518721</v>
+        <v>0.06994061063279143</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04670335660181677</v>
+        <v>0.03464700580909537</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>835207834.0887102</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1816683127.761038</v>
+        <v>2455118850.364498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08130999117327097</v>
+        <v>0.1146350922110851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04818399944305928</v>
+        <v>0.03288985133757073</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>908341655.7681613</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3616751258.859328</v>
+        <v>3730177972.411975</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1082359047667001</v>
+        <v>0.1153408538703804</v>
       </c>
       <c r="G17" t="n">
-        <v>0.046274081982595</v>
+        <v>0.05233192260628729</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1808375682.976536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3624884918.892211</v>
+        <v>3363036867.1235</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1790726231058308</v>
+        <v>0.1624612024388658</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02358552740326771</v>
+        <v>0.02319900170484458</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1812442444.47603</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>976174358.3147269</v>
+        <v>1321576100.227288</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1241948305680501</v>
+        <v>0.1570396431822575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01713662697728864</v>
+        <v>0.02636756827457306</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488087202.6129731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1789245996.5357</v>
+        <v>2220658830.905158</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0991912625403344</v>
+        <v>0.1452051249197693</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02622895936332216</v>
+        <v>0.02550364874063429</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>894623047.0878472</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2431045117.029627</v>
+        <v>2345229782.949078</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08488378481303904</v>
+        <v>0.09731484616874701</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03455605698530798</v>
+        <v>0.04005230829075823</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1215522553.261103</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3772551875.469729</v>
+        <v>2477835023.378911</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1384320513143559</v>
+        <v>0.120339343251942</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0448401023097553</v>
+        <v>0.05033561459705341</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1886275953.017317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1199480091.0965</v>
+        <v>1355327239.56623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1379235120677509</v>
+        <v>0.1638715249627724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04374964349564284</v>
+        <v>0.03730460865058709</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>599740082.1386539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4037077228.570378</v>
+        <v>2993226850.051157</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1056600538345166</v>
+        <v>0.121022679320406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02879869017171889</v>
+        <v>0.02315576037538441</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2018538579.79887</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>901342730.1316531</v>
+        <v>1354747494.463619</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1156958476417814</v>
+        <v>0.1218611745737919</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02396810948960803</v>
+        <v>0.02209314961190662</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>450671451.7506725</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>972393804.2549927</v>
+        <v>1455493853.355073</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1027594190316227</v>
+        <v>0.0822883893472478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02664301999293175</v>
+        <v>0.02612561218910074</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>486196867.4546509</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2979080234.727752</v>
+        <v>4647318189.670242</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1539154576397776</v>
+        <v>0.1267838061853828</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02661296993509933</v>
+        <v>0.02719986733105182</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>98</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1489540178.219952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3230198887.609367</v>
+        <v>2629573634.451366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1232355641594275</v>
+        <v>0.1214282508679058</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04532158179753944</v>
+        <v>0.03207319533255267</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>126</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1615099475.028066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4911935728.815505</v>
+        <v>4986349550.828524</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1067711996489203</v>
+        <v>0.09615546374862789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02852105040653091</v>
+        <v>0.04010098205097186</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>173</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2455967818.051007</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2301233647.683715</v>
+        <v>1993631570.038516</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09835914597664185</v>
+        <v>0.1265325546307197</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02871229974208835</v>
+        <v>0.03706559898826809</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1150616895.623037</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1289248714.575819</v>
+        <v>1423253062.498114</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09256354638498623</v>
+        <v>0.09880908525450807</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04213353900175699</v>
+        <v>0.05212418194248931</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>644624287.7574967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1235239623.474801</v>
+        <v>1243429368.039889</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1013393242848147</v>
+        <v>0.09425818432324554</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0343623235112714</v>
+        <v>0.03743562957103436</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>617619825.2630942</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1921398261.72112</v>
+        <v>2431005153.423573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1346777663444149</v>
+        <v>0.2021806685829934</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04818712280030916</v>
+        <v>0.04350897990606938</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>960699218.349089</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1357075010.897021</v>
+        <v>996486451.3445889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09222681047687628</v>
+        <v>0.1099985514064684</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02382890366116309</v>
+        <v>0.02386659383823567</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>678537484.7270504</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1094862887.624987</v>
+        <v>1163562120.807924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08535580621945495</v>
+        <v>0.07332888801731526</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03486666537971847</v>
+        <v>0.03090615880392593</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>547431441.6058829</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2296610392.615113</v>
+        <v>2705915510.149952</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1321333588615338</v>
+        <v>0.1240824906616743</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02642719223858662</v>
+        <v>0.02863727289129806</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1148305234.611579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2838037408.642022</v>
+        <v>1942113375.062807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08174919959881843</v>
+        <v>0.1010542504105779</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04229287170082387</v>
+        <v>0.03804135547643047</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>103</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1419018846.926086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1905116791.820886</v>
+        <v>1660320270.12762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214480391739912</v>
+        <v>0.1185495960401485</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03739733431656046</v>
+        <v>0.02700423454925594</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>952558387.9592932</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1825622963.901164</v>
+        <v>2186492761.536341</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1449388181559688</v>
+        <v>0.1325014737420169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02858448782940615</v>
+        <v>0.03068689040635133</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>912811502.976971</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1412925661.841164</v>
+        <v>1493094761.769091</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1382783192724214</v>
+        <v>0.1054793703664105</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05934429354595595</v>
+        <v>0.03870989732295024</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>706462818.9317887</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2460930262.614603</v>
+        <v>2628022010.665629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1277828351534485</v>
+        <v>0.1467980635093657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03857783481669706</v>
+        <v>0.03555867953448973</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1230465160.40371</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4258769947.709096</v>
+        <v>3983066511.466068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09234772613472395</v>
+        <v>0.09163004812090014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02961174512366572</v>
+        <v>0.03724241142383448</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>127</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2129385020.939226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2086155394.402342</v>
+        <v>2699845622.952568</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1657689716069926</v>
+        <v>0.1592152309743629</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01631258458654765</v>
+        <v>0.01561517653834876</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>136</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1043077787.481605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2099395141.522609</v>
+        <v>1969910907.565506</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09020827152512725</v>
+        <v>0.08545055511818328</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02729040204471158</v>
+        <v>0.03527492744720854</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1049697696.932579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2137454545.319557</v>
+        <v>1948735551.732151</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1568641989931361</v>
+        <v>0.1260552655744794</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04143416175420317</v>
+        <v>0.04227395519738376</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1068727277.432032</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4029953169.772603</v>
+        <v>4876299229.078698</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1763818947182562</v>
+        <v>0.1496403125497534</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0419234580480804</v>
+        <v>0.05511950729200399</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>139</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2014976556.144306</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3592608500.221575</v>
+        <v>4498282998.666811</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1552342954162051</v>
+        <v>0.1299508865336932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04007123602317087</v>
+        <v>0.04193718945849237</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>105</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1796304226.165802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3591437442.928128</v>
+        <v>3424552802.243249</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020932032548076</v>
+        <v>0.1016612297622858</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03152786109420608</v>
+        <v>0.0240664186200314</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>128</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1795718779.594479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1652605936.605134</v>
+        <v>1793343245.090301</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1390887291772393</v>
+        <v>0.1331779037151583</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03001899686959002</v>
+        <v>0.04313753473706929</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>826302976.6152815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3940061157.575209</v>
+        <v>3269387377.155762</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1113316180600371</v>
+        <v>0.1607134799015483</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03578831997706092</v>
+        <v>0.04562691122924867</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1970030571.745902</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1391437019.451501</v>
+        <v>1186973960.374742</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118362027714173</v>
+        <v>0.1405955485104117</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04094592448376649</v>
+        <v>0.04858566519988007</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>695718530.2583426</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5272102144.892133</v>
+        <v>4733950075.821707</v>
       </c>
       <c r="F52" t="n">
-        <v>0.10054438146654</v>
+        <v>0.1038665893421887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05639894570490955</v>
+        <v>0.06025048424125561</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>161</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2636051054.072397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3365587659.64107</v>
+        <v>3079401233.807848</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1272056385190367</v>
+        <v>0.178851901931845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03448666813071992</v>
+        <v>0.02868030772175121</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1682793837.05402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3246007662.297441</v>
+        <v>4176767183.953386</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1502189641131724</v>
+        <v>0.1398843582758066</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04414873522796073</v>
+        <v>0.03404009912434988</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1623003836.021599</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3754999630.707923</v>
+        <v>4600038458.429543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1743535017844592</v>
+        <v>0.1620693684591341</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02340702235777728</v>
+        <v>0.02920126804927025</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1877499779.464779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1285659801.687136</v>
+        <v>1696702126.122032</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1053801714490257</v>
+        <v>0.1324978588107228</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04599001858313352</v>
+        <v>0.0501998995962114</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>642829974.8448704</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2904607238.612354</v>
+        <v>4391983336.31666</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1118838335691185</v>
+        <v>0.1813215144859325</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01678807508646218</v>
+        <v>0.02556336363602645</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>124</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1452303615.713174</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1579165140.45967</v>
+        <v>1611638379.396644</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1286953350400965</v>
+        <v>0.1540762973059498</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03715280868002276</v>
+        <v>0.03010375283536548</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>789582594.1469405</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3962448142.225278</v>
+        <v>4729154015.408282</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1060191833941636</v>
+        <v>0.1111571563385057</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0338677957483924</v>
+        <v>0.03527740204652276</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1981224048.893298</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3687192494.943337</v>
+        <v>3727908185.863443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1251898093249664</v>
+        <v>0.1417239193708297</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0273180711969968</v>
+        <v>0.02436404809070876</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1843596389.917489</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2485713965.386455</v>
+        <v>3246732668.414651</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1655919408692994</v>
+        <v>0.1595414171610471</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02344231980377196</v>
+        <v>0.02359610218970268</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>135</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1242857011.668707</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1514207841.135573</v>
+        <v>1743138264.298589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1303082332483123</v>
+        <v>0.1623794795638939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04813667431023996</v>
+        <v>0.04298452561984446</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>757103905.7893057</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4241954462.906494</v>
+        <v>3555719524.248469</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08279306745641113</v>
+        <v>0.07468289954680538</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03139962753736947</v>
+        <v>0.04461601131238197</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2120977283.055899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5454172104.27351</v>
+        <v>3545158839.692519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1536561281147606</v>
+        <v>0.131599511790307</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02909235026113415</v>
+        <v>0.03177214100399188</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>122</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2727086190.284143</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4991634332.332942</v>
+        <v>4793187445.127511</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1317723715395662</v>
+        <v>0.1141603117554354</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02963858961184025</v>
+        <v>0.02901134559426457</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>140</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2495817125.587144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3792082591.985046</v>
+        <v>5713432726.993286</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1173120272824303</v>
+        <v>0.1125755674791852</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04948106043694498</v>
+        <v>0.03924864056616213</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1896041258.490086</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3191244617.484179</v>
+        <v>2876607638.966183</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08000969880488674</v>
+        <v>0.06507194396158608</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03836482593918865</v>
+        <v>0.03210208943608394</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>126</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1595622310.848709</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4670550643.17544</v>
+        <v>5528948817.399282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356615613331428</v>
+        <v>0.1105678144477828</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03358162948694034</v>
+        <v>0.04974699260819208</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2335275358.01776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1807082449.792528</v>
+        <v>1824181245.873491</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1738485129968035</v>
+        <v>0.1359687099008446</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04548252862447792</v>
+        <v>0.05479559539611091</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>903541204.9460528</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3211729038.877837</v>
+        <v>2766984722.61331</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07547220558007382</v>
+        <v>0.07842579959234205</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04381324460060744</v>
+        <v>0.03380483518211154</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>112</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1605864510.294627</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3629600747.777153</v>
+        <v>5309924216.97877</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1296041184328243</v>
+        <v>0.1216307831036631</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02519751606653708</v>
+        <v>0.03286194584889433</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>142</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1814800377.337773</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2106138272.782084</v>
+        <v>1594694284.248353</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09658581303460198</v>
+        <v>0.1080201091597177</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04270470265298239</v>
+        <v>0.05009865826612547</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1053069065.641958</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3515747037.910476</v>
+        <v>2592808890.598338</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08401188188363011</v>
+        <v>0.08565704423039515</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0460703371614694</v>
+        <v>0.04954276797236606</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>148</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1757873467.714052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2726694052.964888</v>
+        <v>2873411603.954154</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1681363941447992</v>
+        <v>0.1757900311441627</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02426593956835816</v>
+        <v>0.03223580754421882</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>133</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1363347115.489486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2177937948.668299</v>
+        <v>2120667692.450726</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1422436095048425</v>
+        <v>0.1600393366603122</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03775016725797166</v>
+        <v>0.03440924764501616</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1088968921.852433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5097597714.952178</v>
+        <v>3826806140.020952</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1046037478551894</v>
+        <v>0.123317230218546</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03171733425329485</v>
+        <v>0.02912421762814579</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2548798888.201193</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1878270348.470654</v>
+        <v>1672923289.157989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1831620164537361</v>
+        <v>0.1461341630221712</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02357223754872783</v>
+        <v>0.0203497548093541</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>939135217.7711558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2990770091.499625</v>
+        <v>4373816400.297706</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1231374155657048</v>
+        <v>0.09595263041562192</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04188694325146711</v>
+        <v>0.05584193349166364</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>136</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1495385083.702197</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1813764589.636821</v>
+        <v>1323493188.126989</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1101936604102066</v>
+        <v>0.1181602880351427</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03365824633353735</v>
+        <v>0.02977712717910811</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>906882383.8935057</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4911016185.744245</v>
+        <v>5029578914.017886</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0766654911050642</v>
+        <v>0.09869037200308078</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02409575107470047</v>
+        <v>0.03516887231051036</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2455508137.683596</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3508172103.522282</v>
+        <v>3918481201.03925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1078243920827589</v>
+        <v>0.09926582048580801</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0291288383702179</v>
+        <v>0.02725516728926667</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1754085996.709735</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238375052.334868</v>
+        <v>5625408692.579885</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2151390125131147</v>
+        <v>0.1751091496256583</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02710853804680955</v>
+        <v>0.02452817907981786</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>136</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2619187496.828542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1759876003.733993</v>
+        <v>2298996544.70702</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09599702541129088</v>
+        <v>0.1565989756057755</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04264643385043146</v>
+        <v>0.03713792240665254</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>879937957.3065702</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2428324137.469841</v>
+        <v>2445794920.548894</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1136320359709554</v>
+        <v>0.08407877346915171</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04885809820183711</v>
+        <v>0.03730571945416893</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1214162011.07628</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2602444687.292759</v>
+        <v>3066473175.392683</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1763161295554549</v>
+        <v>0.1647964379137726</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05642502323586614</v>
+        <v>0.04573478265487604</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>147</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1301222359.922111</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2576262049.808142</v>
+        <v>2792642620.424333</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1402211326895706</v>
+        <v>0.1218585821840359</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02166718007702157</v>
+        <v>0.02173059555792309</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>52</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1288131132.686501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1160781876.741102</v>
+        <v>1315509923.706832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1323022305687968</v>
+        <v>0.1380041724682775</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03880367250440299</v>
+        <v>0.03399034473154105</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>580390983.9356427</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2671687011.822662</v>
+        <v>3581382914.785584</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1265966490332317</v>
+        <v>0.1609580177079323</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03900140069678748</v>
+        <v>0.0341701192943425</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>154</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1335843503.914558</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2582512446.955106</v>
+        <v>2860431382.496863</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1143353520200005</v>
+        <v>0.1560385990873134</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02569092717839817</v>
+        <v>0.03326748309905461</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>132</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1291256292.196973</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1954384730.349154</v>
+        <v>1619844253.749509</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1051262123574627</v>
+        <v>0.09004959187352125</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05276927378254959</v>
+        <v>0.05296293684461503</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>977192427.0564286</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1945911301.368043</v>
+        <v>1748943086.646327</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1819652087593824</v>
+        <v>0.1495471455227002</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05187277742138389</v>
+        <v>0.04012667011354141</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>972955630.164705</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2524318409.155143</v>
+        <v>2316962822.799218</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07300555070574284</v>
+        <v>0.1064494274315717</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03655715491261615</v>
+        <v>0.04172381163118725</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1262159190.369447</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4094763143.426322</v>
+        <v>3785024948.475821</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1383905100633777</v>
+        <v>0.1317645088394938</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03418501892746281</v>
+        <v>0.03778996360020483</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>121</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2047381566.227026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1565513138.578487</v>
+        <v>2355937505.000643</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1086493333915295</v>
+        <v>0.1201785637781397</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03735447142126863</v>
+        <v>0.02696169078159567</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>782756511.071207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2267125131.35552</v>
+        <v>3140662371.206185</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1066393704860384</v>
+        <v>0.09548390700952657</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0490511386480156</v>
+        <v>0.0500043980963586</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1133562618.75178</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1503276868.343982</v>
+        <v>1739696938.275154</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09186441744332687</v>
+        <v>0.1168979014514903</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03000970937293376</v>
+        <v>0.04342315808720073</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>751638474.2026905</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3565993486.174304</v>
+        <v>3438878555.050927</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1546066758280112</v>
+        <v>0.1067562881599794</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02661187876475934</v>
+        <v>0.01789561152862529</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1782996764.572139</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3918697981.381036</v>
+        <v>3736887536.647689</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08014385919284162</v>
+        <v>0.08973726757595653</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03139060934832093</v>
+        <v>0.02188637838298479</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>107</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1959349037.731298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2636178482.19737</v>
+        <v>3406659995.920072</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1028459350840042</v>
+        <v>0.1163525998089076</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03450736431743824</v>
+        <v>0.03322898226502201</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1318089200.709995</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4315895084.071078</v>
+        <v>3110276858.467368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1562191761086996</v>
+        <v>0.1277429109664842</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01718430884905683</v>
+        <v>0.02407049638993546</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>121</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2157947637.928632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2813407144.292766</v>
+        <v>3568039321.707755</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1824747748860916</v>
+        <v>0.1679010112178197</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03830784433940217</v>
+        <v>0.03837498059324904</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>159</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1406703636.543842</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_392.xlsx
+++ b/output/fit_clients/fit_round_392.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2401065825.037773</v>
+        <v>2302461899.099302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08876156740187369</v>
+        <v>0.1147084604007546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03656568384772696</v>
+        <v>0.04237876872903106</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2487360564.150615</v>
+        <v>1933972829.686924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1492080168714705</v>
+        <v>0.178812630150621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04467608919300319</v>
+        <v>0.04668991270489995</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4898637684.10034</v>
+        <v>4538349790.228527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1352737501394641</v>
+        <v>0.1259256943436184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02863118325032151</v>
+        <v>0.02905317879946883</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3406207802.90823</v>
+        <v>3656470160.419226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09995556503362288</v>
+        <v>0.1041502419301361</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03892493478260892</v>
+        <v>0.05035592486610447</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2100378655.424449</v>
+        <v>2289459401.84799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09642551059178753</v>
+        <v>0.1025947260742525</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04137050148777874</v>
+        <v>0.04468309576416746</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3037997585.01615</v>
+        <v>2408918948.657576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08556548279465462</v>
+        <v>0.08214582165197014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03067348754047055</v>
+        <v>0.03349378831850296</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2755209305.837414</v>
+        <v>3597833187.01473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1998504880293911</v>
+        <v>0.1656426569366658</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03125196627860025</v>
+        <v>0.03307426956026333</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1900168915.620427</v>
+        <v>1989381473.489438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1622464730959721</v>
+        <v>0.1601182942426172</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02269086772115859</v>
+        <v>0.0327483487173767</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5684184180.003138</v>
+        <v>5127651255.024806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1320696036522792</v>
+        <v>0.1931046757971737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04618451174761467</v>
+        <v>0.04184726215402746</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3222937249.301024</v>
+        <v>2796002746.344779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1347268811490092</v>
+        <v>0.1491383137739282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04051386672153505</v>
+        <v>0.04664829427965198</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2380523218.997735</v>
+        <v>3118600392.324795</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1682544308553489</v>
+        <v>0.1628065411102338</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03922203213609207</v>
+        <v>0.04205582937919233</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5256361722.990769</v>
+        <v>4962876859.850465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07385947210394402</v>
+        <v>0.0774271218576893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0232416258799449</v>
+        <v>0.01956710290306245</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2723713432.377651</v>
+        <v>3483483320.686756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1629539042046887</v>
+        <v>0.1486556776263156</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03803699583782648</v>
+        <v>0.0429499902465388</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1597924790.161334</v>
+        <v>1784245226.017192</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06994061063279143</v>
+        <v>0.1013493913853879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03464700580909537</v>
+        <v>0.04379367080003841</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2455118850.364498</v>
+        <v>2513399179.297381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1146350922110851</v>
+        <v>0.1030081491729029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03288985133757073</v>
+        <v>0.03894887491566235</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3730177972.411975</v>
+        <v>3438021344.855644</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1153408538703804</v>
+        <v>0.1066624393291647</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05233192260628729</v>
+        <v>0.03438585401252122</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3363036867.1235</v>
+        <v>4005836863.82729</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1624612024388658</v>
+        <v>0.1716922081308019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02319900170484458</v>
+        <v>0.02082359212417286</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1321576100.227288</v>
+        <v>899219933.368259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1570396431822575</v>
+        <v>0.1355141747444902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02636756827457306</v>
+        <v>0.02179445490177606</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2220658830.905158</v>
+        <v>2423779754.261679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1452051249197693</v>
+        <v>0.1224277649802062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02550364874063429</v>
+        <v>0.02741946487343892</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2345229782.949078</v>
+        <v>1879884768.397099</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09731484616874701</v>
+        <v>0.09689742850791536</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04005230829075823</v>
+        <v>0.04505272167396488</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2477835023.378911</v>
+        <v>3367706898.098533</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120339343251942</v>
+        <v>0.09323634380314076</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05033561459705341</v>
+        <v>0.05190679203215723</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1355327239.56623</v>
+        <v>1016076075.60846</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1638715249627724</v>
+        <v>0.1458286157976152</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03730460865058709</v>
+        <v>0.05311864248239819</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2993226850.051157</v>
+        <v>3924766975.678857</v>
       </c>
       <c r="F24" t="n">
-        <v>0.121022679320406</v>
+        <v>0.1299043033812495</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02315576037538441</v>
+        <v>0.03110973582981264</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1354747494.463619</v>
+        <v>1244103865.656214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1218611745737919</v>
+        <v>0.1082040181945848</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02209314961190662</v>
+        <v>0.02916459957457915</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1455493853.355073</v>
+        <v>1188809811.232593</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0822883893472478</v>
+        <v>0.1151007350578847</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02612561218910074</v>
+        <v>0.02740821353007873</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4647318189.670242</v>
+        <v>3154555927.011399</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1267838061853828</v>
+        <v>0.1298433825004947</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02719986733105182</v>
+        <v>0.01814550141666157</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2629573634.451366</v>
+        <v>3063002152.406661</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1214282508679058</v>
+        <v>0.1110299484665843</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03207319533255267</v>
+        <v>0.03789728865581502</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4986349550.828524</v>
+        <v>4111477839.535966</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09615546374862789</v>
+        <v>0.1033406035610028</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04010098205097186</v>
+        <v>0.03066153416963465</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1993631570.038516</v>
+        <v>1621883747.900288</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1265325546307197</v>
+        <v>0.08591080735345875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03706559898826809</v>
+        <v>0.02714364095317238</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423253062.498114</v>
+        <v>1187804476.075792</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09880908525450807</v>
+        <v>0.07395782768932101</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05212418194248931</v>
+        <v>0.0334381951821204</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1243429368.039889</v>
+        <v>1205789862.362377</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09425818432324554</v>
+        <v>0.09189525101945492</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03743562957103436</v>
+        <v>0.0372324976533373</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2431005153.423573</v>
+        <v>1948958255.693917</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2021806685829934</v>
+        <v>0.1949709088667611</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04350897990606938</v>
+        <v>0.05237426526092055</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>996486451.3445889</v>
+        <v>1252767378.339358</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1099985514064684</v>
+        <v>0.1101286069100379</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02386659383823567</v>
+        <v>0.0181180543500687</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1163562120.807924</v>
+        <v>930318513.5425764</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07332888801731526</v>
+        <v>0.08958274698580541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03090615880392593</v>
+        <v>0.04058440259208234</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2705915510.149952</v>
+        <v>2659891916.975924</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1240824906616743</v>
+        <v>0.1152409718150274</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02863727289129806</v>
+        <v>0.02736132154933585</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1942113375.062807</v>
+        <v>2826677372.791366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1010542504105779</v>
+        <v>0.08796084603130697</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03804135547643047</v>
+        <v>0.03326684350390528</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1660320270.12762</v>
+        <v>2169733579.623219</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1185495960401485</v>
+        <v>0.1150160739852949</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02700423454925594</v>
+        <v>0.03617766108677067</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2186492761.536341</v>
+        <v>1923562195.946985</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1325014737420169</v>
+        <v>0.1601230063876153</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03068689040635133</v>
+        <v>0.03175054217668183</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1493094761.769091</v>
+        <v>1816629927.393645</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054793703664105</v>
+        <v>0.1105979728815554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03870989732295024</v>
+        <v>0.05423953087991407</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2628022010.665629</v>
+        <v>2328392308.020906</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1467980635093657</v>
+        <v>0.134796239715174</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03555867953448973</v>
+        <v>0.03078010918921815</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3983066511.466068</v>
+        <v>2969970379.487942</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09163004812090014</v>
+        <v>0.1231713314611786</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03724241142383448</v>
+        <v>0.04584679661951384</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2699845622.952568</v>
+        <v>2582860532.029942</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1592152309743629</v>
+        <v>0.1737967823308905</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01561517653834876</v>
+        <v>0.02066495117429822</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1969910907.565506</v>
+        <v>2092370916.920969</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08545055511818328</v>
+        <v>0.1024662271849334</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03527492744720854</v>
+        <v>0.03345972858457539</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1948735551.732151</v>
+        <v>1816612845.965499</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1260552655744794</v>
+        <v>0.1921004619074959</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04227395519738376</v>
+        <v>0.05505117622467746</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4876299229.078698</v>
+        <v>3488374154.883421</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1496403125497534</v>
+        <v>0.110999632439594</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05511950729200399</v>
+        <v>0.04490991416683247</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4498282998.666811</v>
+        <v>4276555438.332508</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1299508865336932</v>
+        <v>0.1575960594405905</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04193718945849237</v>
+        <v>0.05254644911123106</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3424552802.243249</v>
+        <v>2905488108.560861</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1016612297622858</v>
+        <v>0.0680614821009598</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0240664186200314</v>
+        <v>0.03391909939794771</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1793343245.090301</v>
+        <v>1286091902.573105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1331779037151583</v>
+        <v>0.1964577280527335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04313753473706929</v>
+        <v>0.03669436651217239</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3269387377.155762</v>
+        <v>2767818407.323514</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1607134799015483</v>
+        <v>0.1730405604332449</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04562691122924867</v>
+        <v>0.04743298710417993</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1186973960.374742</v>
+        <v>1375608294.988635</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1405955485104117</v>
+        <v>0.1393933531045871</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04858566519988007</v>
+        <v>0.04565899770579381</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4733950075.821707</v>
+        <v>3728073139.944688</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038665893421887</v>
+        <v>0.1178282860533451</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06025048424125561</v>
+        <v>0.04519796616217269</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3079401233.807848</v>
+        <v>3317241901.148192</v>
       </c>
       <c r="F53" t="n">
-        <v>0.178851901931845</v>
+        <v>0.1260828601645763</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02868030772175121</v>
+        <v>0.03292192959803521</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4176767183.953386</v>
+        <v>4034687801.033199</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1398843582758066</v>
+        <v>0.136635078455817</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03404009912434988</v>
+        <v>0.04901806308814111</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4600038458.429543</v>
+        <v>3429211346.258207</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1620693684591341</v>
+        <v>0.1935185855767693</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02920126804927025</v>
+        <v>0.02653821638325206</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1696702126.122032</v>
+        <v>1354504266.089051</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1324978588107228</v>
+        <v>0.1491967905743234</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0501998995962114</v>
+        <v>0.05639113283713865</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4391983336.31666</v>
+        <v>2930764282.692456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1813215144859325</v>
+        <v>0.1719009096396521</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02556336363602645</v>
+        <v>0.02483415723700362</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1611638379.396644</v>
+        <v>1777243204.893828</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1540762973059498</v>
+        <v>0.1651266409712401</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03010375283536548</v>
+        <v>0.02501585418761441</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4729154015.408282</v>
+        <v>3839266444.663662</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1111571563385057</v>
+        <v>0.08939259111418156</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03527740204652276</v>
+        <v>0.04300603290700896</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3727908185.863443</v>
+        <v>2366419704.183452</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1417239193708297</v>
+        <v>0.1620043628858322</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02436404809070876</v>
+        <v>0.02995512616817882</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3246732668.414651</v>
+        <v>3072971861.51579</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1595414171610471</v>
+        <v>0.1775372678905794</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02359610218970268</v>
+        <v>0.03147587589573848</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1743138264.298589</v>
+        <v>1566291088.892334</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1623794795638939</v>
+        <v>0.1817374443921523</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04298452561984446</v>
+        <v>0.03922503686037263</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3555719524.248469</v>
+        <v>5533802910.279626</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07468289954680538</v>
+        <v>0.07819900267421059</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04461601131238197</v>
+        <v>0.0407937262591212</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3545158839.692519</v>
+        <v>3520801300.604775</v>
       </c>
       <c r="F64" t="n">
-        <v>0.131599511790307</v>
+        <v>0.1368501414821382</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03177214100399188</v>
+        <v>0.02994498526837563</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4793187445.127511</v>
+        <v>5520288479.751969</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1141603117554354</v>
+        <v>0.1663455761408495</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02901134559426457</v>
+        <v>0.02974371618035008</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5713432726.993286</v>
+        <v>5275859747.320385</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1125755674791852</v>
+        <v>0.1067311208315094</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03924864056616213</v>
+        <v>0.04390810938907069</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2876607638.966183</v>
+        <v>3115318392.975327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06507194396158608</v>
+        <v>0.08610134655660827</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03210208943608394</v>
+        <v>0.03863656728300828</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5528948817.399282</v>
+        <v>5177666897.358557</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1105678144477828</v>
+        <v>0.1600736201961546</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04974699260819208</v>
+        <v>0.04124498871946772</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1824181245.873491</v>
+        <v>2037664791.590119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1359687099008446</v>
+        <v>0.157715682864366</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05479559539611091</v>
+        <v>0.05800168149854577</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2766984722.61331</v>
+        <v>2414145358.853488</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07842579959234205</v>
+        <v>0.09502650817601005</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03380483518211154</v>
+        <v>0.03686032028369797</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5309924216.97877</v>
+        <v>4947431089.643058</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1216307831036631</v>
+        <v>0.164499119525413</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03286194584889433</v>
+        <v>0.0245846646816248</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1594694284.248353</v>
+        <v>1431108873.686952</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1080201091597177</v>
+        <v>0.06570750052211764</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05009865826612547</v>
+        <v>0.04313093496382604</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2592808890.598338</v>
+        <v>2685206509.719378</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08565704423039515</v>
+        <v>0.1118255032808129</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04954276797236606</v>
+        <v>0.03998635435192035</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2873411603.954154</v>
+        <v>2805534474.887751</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1757900311441627</v>
+        <v>0.145812022276946</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03223580754421882</v>
+        <v>0.03458507479665602</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2120667692.450726</v>
+        <v>2070964777.263135</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1600393366603122</v>
+        <v>0.1103079448508325</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03440924764501616</v>
+        <v>0.03060914293776373</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3826806140.020952</v>
+        <v>3895884652.987002</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123317230218546</v>
+        <v>0.1228993390187145</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02912421762814579</v>
+        <v>0.02224013207625676</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1672923289.157989</v>
+        <v>1581192645.646289</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1461341630221712</v>
+        <v>0.1721873469850552</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0203497548093541</v>
+        <v>0.02790319710911325</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4373816400.297706</v>
+        <v>4641685453.676826</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09595263041562192</v>
+        <v>0.09275278789131201</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05584193349166364</v>
+        <v>0.04055276828399289</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323493188.126989</v>
+        <v>1703541829.216571</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1181602880351427</v>
+        <v>0.1764495228715135</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02977712717910811</v>
+        <v>0.03267059089804231</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5029578914.017886</v>
+        <v>4945595930.200361</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09869037200308078</v>
+        <v>0.09152362076398519</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03516887231051036</v>
+        <v>0.03468557518076575</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3918481201.03925</v>
+        <v>3428058046.712889</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09926582048580801</v>
+        <v>0.1249049175570097</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02725516728926667</v>
+        <v>0.02955158176104061</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5625408692.579885</v>
+        <v>3536718253.175191</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1751091496256583</v>
+        <v>0.1421521696898906</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02452817907981786</v>
+        <v>0.01877370601303004</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2298996544.70702</v>
+        <v>2320407527.185038</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1565989756057755</v>
+        <v>0.1107349036724441</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03713792240665254</v>
+        <v>0.03913195090616194</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2445794920.548894</v>
+        <v>1765642745.29082</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08407877346915171</v>
+        <v>0.09069625824892757</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03730571945416893</v>
+        <v>0.04592928274437689</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3066473175.392683</v>
+        <v>2736590967.865427</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1647964379137726</v>
+        <v>0.1377771111400205</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04573478265487604</v>
+        <v>0.03680696952808199</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2792642620.424333</v>
+        <v>2074214081.666061</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1218585821840359</v>
+        <v>0.1089606532834357</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02173059555792309</v>
+        <v>0.020383101883769</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1315509923.706832</v>
+        <v>1389795024.406385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1380041724682775</v>
+        <v>0.1661489534985781</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03399034473154105</v>
+        <v>0.04214524697027832</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3581382914.785584</v>
+        <v>3182048411.550359</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1609580177079323</v>
+        <v>0.1542892855330504</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0341701192943425</v>
+        <v>0.02731654981422913</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2860431382.496863</v>
+        <v>3468244130.260519</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1560385990873134</v>
+        <v>0.1399413019228112</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03326748309905461</v>
+        <v>0.03216214750666212</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1619844253.749509</v>
+        <v>1923000539.825983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09004959187352125</v>
+        <v>0.1078884261022503</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05296293684461503</v>
+        <v>0.04299741363619223</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1748943086.646327</v>
+        <v>2024698195.842027</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1495471455227002</v>
+        <v>0.1531979886670725</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04012667011354141</v>
+        <v>0.04230669622024245</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2316962822.799218</v>
+        <v>2319289397.436675</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1064494274315717</v>
+        <v>0.07624406121795801</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04172381163118725</v>
+        <v>0.03427803083918522</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3785024948.475821</v>
+        <v>4494503827.465846</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1317645088394938</v>
+        <v>0.1187444746063758</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03778996360020483</v>
+        <v>0.05262654207176733</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2355937505.000643</v>
+        <v>2396023677.194586</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1201785637781397</v>
+        <v>0.1502045111556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02696169078159567</v>
+        <v>0.02746379049520462</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3140662371.206185</v>
+        <v>2725097626.595024</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09548390700952657</v>
+        <v>0.109190368969014</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0500043980963586</v>
+        <v>0.03674952989110396</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1739696938.275154</v>
+        <v>1577278975.357461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1168979014514903</v>
+        <v>0.1091230039027057</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04342315808720073</v>
+        <v>0.03289135209361856</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3438878555.050927</v>
+        <v>4945963330.915372</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1067562881599794</v>
+        <v>0.1716359565691316</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01789561152862529</v>
+        <v>0.02402682432037533</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3736887536.647689</v>
+        <v>2387179660.173368</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08973726757595653</v>
+        <v>0.122994133070165</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02188637838298479</v>
+        <v>0.0234649353404741</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3406659995.920072</v>
+        <v>3375514971.483217</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1163525998089076</v>
+        <v>0.1042502640332439</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03322898226502201</v>
+        <v>0.03202563384213176</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3110276858.467368</v>
+        <v>3679761643.061115</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1277429109664842</v>
+        <v>0.1529185216045805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02407049638993546</v>
+        <v>0.02103956018263172</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3568039321.707755</v>
+        <v>2496588090.273994</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1679010112178197</v>
+        <v>0.1851573869541307</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03837498059324904</v>
+        <v>0.05535028113336752</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_392.xlsx
+++ b/output/fit_clients/fit_round_392.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2302461899.099302</v>
+        <v>2137398880.900189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147084604007546</v>
+        <v>0.1123943295001408</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04237876872903106</v>
+        <v>0.03922236253565423</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1933972829.686924</v>
+        <v>1744593426.31493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.178812630150621</v>
+        <v>0.1538226983701777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04668991270489995</v>
+        <v>0.04177088258210346</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4538349790.228527</v>
+        <v>3744233980.310714</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1259256943436184</v>
+        <v>0.1617829126485104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02905317879946883</v>
+        <v>0.03720836975948572</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>199</v>
+      </c>
+      <c r="J4" t="n">
+        <v>392</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3656470160.419226</v>
+        <v>2755437268.327256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1041502419301361</v>
+        <v>0.07052680334667752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05035592486610447</v>
+        <v>0.03742001877256192</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>391</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.69437827632125</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2289459401.84799</v>
+        <v>2787004251.532484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1025947260742525</v>
+        <v>0.1206381085538893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04468309576416746</v>
+        <v>0.04911308627965063</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2408918948.657576</v>
+        <v>2401426157.169099</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08214582165197014</v>
+        <v>0.101016880542708</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03349378831850296</v>
+        <v>0.03438816747267805</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3597833187.01473</v>
+        <v>3362638665.219785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1656426569366658</v>
+        <v>0.1670882206755052</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03307426956026333</v>
+        <v>0.02325287735687234</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>390</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1989381473.489438</v>
+        <v>1613109416.479885</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1601182942426172</v>
+        <v>0.1392184284557409</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0327483487173767</v>
+        <v>0.03271428340171922</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5127651255.024806</v>
+        <v>5054025481.437615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1931046757971737</v>
+        <v>0.2062277272036484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04184726215402746</v>
+        <v>0.04200072834549157</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>319</v>
+      </c>
+      <c r="J10" t="n">
+        <v>392</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49.97688150468279</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2796002746.344779</v>
+        <v>3567337196.9048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1491383137739282</v>
+        <v>0.1663929294264143</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04664829427965198</v>
+        <v>0.03972532684480659</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>164</v>
+      </c>
+      <c r="J11" t="n">
+        <v>392</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3118600392.324795</v>
+        <v>2339961636.564538</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1628065411102338</v>
+        <v>0.199625614855037</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04205582937919233</v>
+        <v>0.0487880147510921</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4962876859.850465</v>
+        <v>4620780406.906984</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0774271218576893</v>
+        <v>0.07215432455775529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01956710290306245</v>
+        <v>0.0257249448680734</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>204</v>
+      </c>
+      <c r="J13" t="n">
+        <v>392</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3483483320.686756</v>
+        <v>3498682040.85684</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1486556776263156</v>
+        <v>0.1151632282755545</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0429499902465388</v>
+        <v>0.02716366868389911</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1784245226.017192</v>
+        <v>1702960863.246713</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1013493913853879</v>
+        <v>0.06864511703801872</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04379367080003841</v>
+        <v>0.03710724644520386</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2513399179.297381</v>
+        <v>1869090674.336518</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1030081491729029</v>
+        <v>0.07261617613930102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03894887491566235</v>
+        <v>0.04345159774758073</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3438021344.855644</v>
+        <v>4880034502.185304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1066624393291647</v>
+        <v>0.1060778591266609</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03438585401252122</v>
+        <v>0.05236057673939592</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>188</v>
+      </c>
+      <c r="J17" t="n">
+        <v>392</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4005836863.82729</v>
+        <v>2446539635.112004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1716922081308019</v>
+        <v>0.1836939923716463</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02082359212417286</v>
+        <v>0.0305114862267443</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899219933.368259</v>
+        <v>1333721392.078928</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1355141747444902</v>
+        <v>0.1894967778549266</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02179445490177606</v>
+        <v>0.02435132170939503</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2423779754.261679</v>
+        <v>2649293292.272254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1224277649802062</v>
+        <v>0.1576914676235675</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02741946487343892</v>
+        <v>0.03030430588987924</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1879884768.397099</v>
+        <v>2160664661.735643</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09689742850791536</v>
+        <v>0.09276685445319734</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04505272167396488</v>
+        <v>0.03043452898552584</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3367706898.098533</v>
+        <v>3360169258.674813</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09323634380314076</v>
+        <v>0.1063389318880587</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05190679203215723</v>
+        <v>0.05567840511869419</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1016076075.60846</v>
+        <v>1494630775.038733</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1458286157976152</v>
+        <v>0.1804167309576211</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05311864248239819</v>
+        <v>0.04516631259520749</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3924766975.678857</v>
+        <v>2858193144.302339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1299043033812495</v>
+        <v>0.11291740306978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03110973582981264</v>
+        <v>0.03748464628942389</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>121</v>
+      </c>
+      <c r="J24" t="n">
+        <v>390</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1244103865.656214</v>
+        <v>1154208368.616956</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1082040181945848</v>
+        <v>0.1045878642337656</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02916459957457915</v>
+        <v>0.02660596621368307</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1188809811.232593</v>
+        <v>895628675.609555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1151007350578847</v>
+        <v>0.078321901811018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02740821353007873</v>
+        <v>0.03443826684584424</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3154555927.011399</v>
+        <v>3584936651.804177</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1298433825004947</v>
+        <v>0.1208373851627666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01814550141666157</v>
+        <v>0.02466636527065218</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>163</v>
+      </c>
+      <c r="J27" t="n">
+        <v>392</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1409,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3063002152.406661</v>
+        <v>3186251635.503031</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1110299484665843</v>
+        <v>0.1316813865235627</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03789728865581502</v>
+        <v>0.03104255819691107</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>94</v>
+      </c>
+      <c r="J28" t="n">
+        <v>391</v>
+      </c>
+      <c r="K28" t="n">
+        <v>36.40065365413604</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1452,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4111477839.535966</v>
+        <v>4982806370.050894</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1033406035610028</v>
+        <v>0.139312607253196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03066153416963465</v>
+        <v>0.04627666216124223</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>335</v>
+      </c>
+      <c r="J29" t="n">
+        <v>391</v>
+      </c>
+      <c r="K29" t="n">
+        <v>48.62219075989503</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1621883747.900288</v>
+        <v>2060675537.216003</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08591080735345875</v>
+        <v>0.1159218139982286</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02714364095317238</v>
+        <v>0.03745159313658242</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1187804476.075792</v>
+        <v>1085844215.697834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07395782768932101</v>
+        <v>0.07385977879681303</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0334381951821204</v>
+        <v>0.05193303477560447</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1205789862.362377</v>
+        <v>1492638098.263721</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09189525101945492</v>
+        <v>0.09189284252852331</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0372324976533373</v>
+        <v>0.03553042624974077</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1948958255.693917</v>
+        <v>2184336943.237092</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1949709088667611</v>
+        <v>0.1523739060887378</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05237426526092055</v>
+        <v>0.06020706031457575</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1252767378.339358</v>
+        <v>1003625665.385781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1101286069100379</v>
+        <v>0.08150260107719443</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0181180543500687</v>
+        <v>0.0209252078258311</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>930318513.5425764</v>
+        <v>832528026.502578</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08958274698580541</v>
+        <v>0.1088139405693494</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04058440259208234</v>
+        <v>0.03022082294138062</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2659891916.975924</v>
+        <v>2945164753.08492</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1152409718150274</v>
+        <v>0.1130224379371284</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02736132154933585</v>
+        <v>0.01848913090000937</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2826677372.791366</v>
+        <v>2762174960.802966</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08796084603130697</v>
+        <v>0.07667250373125287</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03326684350390528</v>
+        <v>0.03336943181372706</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2169733579.623219</v>
+        <v>1882115038.647498</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150160739852949</v>
+        <v>0.07829308378284244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03617766108677067</v>
+        <v>0.03470014555270791</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1923562195.946985</v>
+        <v>1738331461.467238</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1601230063876153</v>
+        <v>0.1656824518666493</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03175054217668183</v>
+        <v>0.02980144037090771</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1816629927.393645</v>
+        <v>1454649464.407356</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1105979728815554</v>
+        <v>0.1020960738131367</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05423953087991407</v>
+        <v>0.0544754874273975</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2328392308.020906</v>
+        <v>2517538378.844334</v>
       </c>
       <c r="F41" t="n">
-        <v>0.134796239715174</v>
+        <v>0.1102840168503541</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03078010918921815</v>
+        <v>0.03046412221979154</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2969970379.487942</v>
+        <v>4237720274.144378</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1231713314611786</v>
+        <v>0.1202749630002847</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04584679661951384</v>
+        <v>0.02822233688474763</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>170</v>
+      </c>
+      <c r="J42" t="n">
+        <v>392</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2582860532.029942</v>
+        <v>2934443049.300454</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1737967823308905</v>
+        <v>0.1351839711433104</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02066495117429822</v>
+        <v>0.02032560638899622</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2092370916.920969</v>
+        <v>1617099438.476275</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1024662271849334</v>
+        <v>0.07209764123388286</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03345972858457539</v>
+        <v>0.03022607401534166</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1816612845.965499</v>
+        <v>2536489224.100093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1921004619074959</v>
+        <v>0.1867663369649386</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05505117622467746</v>
+        <v>0.0388297291456313</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2049,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3488374154.883421</v>
+        <v>5162224710.265772</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110999632439594</v>
+        <v>0.1324903858229905</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04490991416683247</v>
+        <v>0.05974200036638439</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>235</v>
+      </c>
+      <c r="J46" t="n">
+        <v>392</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2084,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4276555438.332508</v>
+        <v>3134812645.811155</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1575960594405905</v>
+        <v>0.1424033071229167</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05254644911123106</v>
+        <v>0.04313753751257697</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>176</v>
+      </c>
+      <c r="J47" t="n">
+        <v>391</v>
+      </c>
+      <c r="K47" t="n">
+        <v>23.93067161480047</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2905488108.560861</v>
+        <v>3064390734.020165</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0680614821009598</v>
+        <v>0.07462611332385304</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03391909939794771</v>
+        <v>0.02700786263020522</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>203</v>
+      </c>
+      <c r="J48" t="n">
+        <v>391</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.69415667619565</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1286091902.573105</v>
+        <v>1215862764.600103</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1964577280527335</v>
+        <v>0.159135091725241</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03669436651217239</v>
+        <v>0.02714229513620038</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2767818407.323514</v>
+        <v>2568809826.006714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1730405604332449</v>
+        <v>0.1447818013203158</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04743298710417993</v>
+        <v>0.0368080717949664</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1375608294.988635</v>
+        <v>1455058069.178448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1393933531045871</v>
+        <v>0.131267958086054</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04565899770579381</v>
+        <v>0.03518889837543737</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3728073139.944688</v>
+        <v>4508245481.085584</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1178282860533451</v>
+        <v>0.120881165840962</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04519796616217269</v>
+        <v>0.04092686516478674</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>229</v>
+      </c>
+      <c r="J52" t="n">
+        <v>391</v>
+      </c>
+      <c r="K52" t="n">
+        <v>49.05288105823239</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3317241901.148192</v>
+        <v>2945437237.93803</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1260828601645763</v>
+        <v>0.187913047507467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03292192959803521</v>
+        <v>0.02210289572821494</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4034687801.033199</v>
+        <v>3491854681.659614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.136635078455817</v>
+        <v>0.1231181167980805</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04901806308814111</v>
+        <v>0.03345811432538962</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>209</v>
+      </c>
+      <c r="J54" t="n">
+        <v>391</v>
+      </c>
+      <c r="K54" t="n">
+        <v>32.25825850846505</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3429211346.258207</v>
+        <v>3134597759.853283</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935185855767693</v>
+        <v>0.2081267122903951</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02653821638325206</v>
+        <v>0.02620005229718779</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1354504266.089051</v>
+        <v>1853272825.957149</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1491967905743234</v>
+        <v>0.158184700482781</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05639113283713865</v>
+        <v>0.04289475469047349</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2930764282.692456</v>
+        <v>3302393840.334682</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1719009096396521</v>
+        <v>0.1692609675744638</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02483415723700362</v>
+        <v>0.02477992564460485</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>167</v>
+      </c>
+      <c r="J57" t="n">
+        <v>391</v>
+      </c>
+      <c r="K57" t="n">
+        <v>29.86844500607762</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1777243204.893828</v>
+        <v>1638235281.937517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1651266409712401</v>
+        <v>0.1582606308223655</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02501585418761441</v>
+        <v>0.02473880429380598</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3839266444.663662</v>
+        <v>4654521988.621325</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08939259111418156</v>
+        <v>0.0829062400773385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04300603290700896</v>
+        <v>0.04323940566286178</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>191</v>
+      </c>
+      <c r="J59" t="n">
+        <v>391</v>
+      </c>
+      <c r="K59" t="n">
+        <v>49.04309578621066</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2366419704.183452</v>
+        <v>3473244544.651568</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1620043628858322</v>
+        <v>0.1493376036618785</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02995512616817882</v>
+        <v>0.02639983719267863</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="n">
+        <v>47.19730800445593</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3072971861.51579</v>
+        <v>2069202592.008904</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1775372678905794</v>
+        <v>0.1729904065539441</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03147587589573848</v>
+        <v>0.02064941810640347</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1566291088.892334</v>
+        <v>1436865721.084629</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1817374443921523</v>
+        <v>0.1857447985722461</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03922503686037263</v>
+        <v>0.03136757584527993</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5533802910.279626</v>
+        <v>5294371443.851258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07819900267421059</v>
+        <v>0.08142675493210058</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0407937262591212</v>
+        <v>0.04363558741809243</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>194</v>
+      </c>
+      <c r="J63" t="n">
+        <v>392</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3520801300.604775</v>
+        <v>3617162920.36775</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1368501414821382</v>
+        <v>0.1569858392003977</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02994498526837563</v>
+        <v>0.03241044712356665</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>194</v>
+      </c>
+      <c r="J64" t="n">
+        <v>392</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5520288479.751969</v>
+        <v>5560069837.596876</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1663455761408495</v>
+        <v>0.1492318754182561</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02974371618035008</v>
+        <v>0.02326529917506688</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>292</v>
+      </c>
+      <c r="J65" t="n">
+        <v>392</v>
+      </c>
+      <c r="K65" t="n">
+        <v>50.24301830585413</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5275859747.320385</v>
+        <v>5571209868.844639</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1067311208315094</v>
+        <v>0.1540973093588238</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04390810938907069</v>
+        <v>0.03884122573244119</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>194</v>
+      </c>
+      <c r="J66" t="n">
+        <v>391</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47.71525449945191</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3115318392.975327</v>
+        <v>3125276139.64991</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08610134655660827</v>
+        <v>0.06564723026943015</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03863656728300828</v>
+        <v>0.03379786626019624</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5177666897.358557</v>
+        <v>5932258504.101943</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1600736201961546</v>
+        <v>0.1513919351618368</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04124498871946772</v>
+        <v>0.05080969228630894</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>213</v>
+      </c>
+      <c r="J68" t="n">
+        <v>391</v>
+      </c>
+      <c r="K68" t="n">
+        <v>49.32991060105723</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2037664791.590119</v>
+        <v>2024961757.948938</v>
       </c>
       <c r="F69" t="n">
-        <v>0.157715682864366</v>
+        <v>0.1407637131501912</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05800168149854577</v>
+        <v>0.04065823763525433</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2414145358.853488</v>
+        <v>2835185704.340951</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09502650817601005</v>
+        <v>0.08373087090017156</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03686032028369797</v>
+        <v>0.04402954500247153</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4947431089.643058</v>
+        <v>4394053161.157686</v>
       </c>
       <c r="F71" t="n">
-        <v>0.164499119525413</v>
+        <v>0.1845178605709461</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0245846646816248</v>
+        <v>0.02876341499652684</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>278</v>
+      </c>
+      <c r="J71" t="n">
+        <v>392</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1431108873.686952</v>
+        <v>1892110321.380475</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06570750052211764</v>
+        <v>0.07287671904574956</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04313093496382604</v>
+        <v>0.04518215785172472</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2685206509.719378</v>
+        <v>2277582894.195613</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1118255032808129</v>
+        <v>0.1011255171756255</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03998635435192035</v>
+        <v>0.04744120185475539</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2805534474.887751</v>
+        <v>3059795218.105374</v>
       </c>
       <c r="F74" t="n">
-        <v>0.145812022276946</v>
+        <v>0.1123423688574333</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03458507479665602</v>
+        <v>0.02216472757907144</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>112</v>
+      </c>
+      <c r="J74" t="n">
+        <v>391</v>
+      </c>
+      <c r="K74" t="n">
+        <v>31.95621985728266</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2070964777.263135</v>
+        <v>1687402518.610047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1103079448508325</v>
+        <v>0.1333768446008058</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03060914293776373</v>
+        <v>0.02317534843196922</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3895884652.987002</v>
+        <v>4353658050.473348</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1228993390187145</v>
+        <v>0.1160991613093585</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02224013207625676</v>
+        <v>0.03232323232454329</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>185</v>
+      </c>
+      <c r="J76" t="n">
+        <v>391</v>
+      </c>
+      <c r="K76" t="n">
+        <v>48.22112134603044</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1581192645.646289</v>
+        <v>1833329255.699979</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1721873469850552</v>
+        <v>0.1248359728281117</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02790319710911325</v>
+        <v>0.02654972250628829</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4641685453.676826</v>
+        <v>3611202581.24243</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09275278789131201</v>
+        <v>0.1201144584192754</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04055276828399289</v>
+        <v>0.05490359749196318</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>195</v>
+      </c>
+      <c r="J78" t="n">
+        <v>392</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1703541829.216571</v>
+        <v>1808444535.062349</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1764495228715135</v>
+        <v>0.1103699285004447</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03267059089804231</v>
+        <v>0.02763711248740839</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4945595930.200361</v>
+        <v>3984429405.759981</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09152362076398519</v>
+        <v>0.08723572662574069</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03468557518076575</v>
+        <v>0.02832127192636335</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>191</v>
+      </c>
+      <c r="J80" t="n">
+        <v>392</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3428058046.712889</v>
+        <v>4103652563.567067</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1249049175570097</v>
+        <v>0.1180921892749196</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02955158176104061</v>
+        <v>0.02421572896506612</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>182</v>
+      </c>
+      <c r="J81" t="n">
+        <v>392</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3536718253.175191</v>
+        <v>5420239872.481015</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1421521696898906</v>
+        <v>0.1909318657797167</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01877370601303004</v>
+        <v>0.01909105742194835</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>269</v>
+      </c>
+      <c r="J82" t="n">
+        <v>392</v>
+      </c>
+      <c r="K82" t="n">
+        <v>50.03573563638566</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2320407527.185038</v>
+        <v>1702613965.000526</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1107349036724441</v>
+        <v>0.1356672472364883</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03913195090616194</v>
+        <v>0.0329158196780092</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1765642745.29082</v>
+        <v>1621487427.393786</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09069625824892757</v>
+        <v>0.1176413898107684</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04592928274437689</v>
+        <v>0.04233877622749507</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2736590967.865427</v>
+        <v>2984309811.381655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1377771111400205</v>
+        <v>0.1177005092812115</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03680696952808199</v>
+        <v>0.04168796620457652</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2074214081.666061</v>
+        <v>2043099156.868454</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1089606532834357</v>
+        <v>0.1347103853064085</v>
       </c>
       <c r="G86" t="n">
-        <v>0.020383101883769</v>
+        <v>0.02018217608986375</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1389795024.406385</v>
+        <v>1285272609.126403</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1661489534985781</v>
+        <v>0.1154217036896122</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04214524697027832</v>
+        <v>0.04196432845363675</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3182048411.550359</v>
+        <v>3667527036.996284</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1542892855330504</v>
+        <v>0.1417857677393235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02731654981422913</v>
+        <v>0.0244187079031861</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>392</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3468244130.260519</v>
+        <v>2270725626.743406</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1399413019228112</v>
+        <v>0.1236734514809894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03216214750666212</v>
+        <v>0.02948810139303622</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1923000539.825983</v>
+        <v>1752865839.543238</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1078884261022503</v>
+        <v>0.1211481752252058</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04299741363619223</v>
+        <v>0.04542732689506927</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2024698195.842027</v>
+        <v>1523712936.27677</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1531979886670725</v>
+        <v>0.166439871580284</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04230669622024245</v>
+        <v>0.04910858365334626</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2319289397.436675</v>
+        <v>2674269332.977906</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07624406121795801</v>
+        <v>0.06831390829885298</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03427803083918522</v>
+        <v>0.04567570243667549</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4494503827.465846</v>
+        <v>4450894676.217067</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1187444746063758</v>
+        <v>0.1032494537918762</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05262654207176733</v>
+        <v>0.03981188435759413</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>186</v>
+      </c>
+      <c r="J93" t="n">
+        <v>392</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2396023677.194586</v>
+        <v>1876556424.744517</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1502045111556264</v>
+        <v>0.1308295021734487</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02746379049520462</v>
+        <v>0.03944101007149787</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2725097626.595024</v>
+        <v>2630058492.958548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.109190368969014</v>
+        <v>0.09905358529379311</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03674952989110396</v>
+        <v>0.05276343133720443</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1577278975.357461</v>
+        <v>2309171292.567989</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1091230039027057</v>
+        <v>0.1262340138363075</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03289135209361856</v>
+        <v>0.03739020015167607</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4945963330.915372</v>
+        <v>4786671763.826765</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1716359565691316</v>
+        <v>0.1541298464935903</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02402682432037533</v>
+        <v>0.02378571100381794</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>204</v>
+      </c>
+      <c r="J97" t="n">
+        <v>392</v>
+      </c>
+      <c r="K97" t="n">
+        <v>49.74091001046743</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2387179660.173368</v>
+        <v>2886665550.077572</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122994133070165</v>
+        <v>0.121157118384609</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0234649353404741</v>
+        <v>0.02783350271256558</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="n">
+        <v>26.65678743575472</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3375514971.483217</v>
+        <v>2121559999.685117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1042502640332439</v>
+        <v>0.1370946019952383</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03202563384213176</v>
+        <v>0.03446264213577739</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3679761643.061115</v>
+        <v>4610155286.127379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1529185216045805</v>
+        <v>0.1731710904439189</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02103956018263172</v>
+        <v>0.0193884768267342</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>181</v>
+      </c>
+      <c r="J100" t="n">
+        <v>392</v>
+      </c>
+      <c r="K100" t="n">
+        <v>49.94836790434647</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2496588090.273994</v>
+        <v>3409105878.569978</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1851573869541307</v>
+        <v>0.1986611005330517</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05535028113336752</v>
+        <v>0.03554848498722401</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>390</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
